--- a/13_jsp_mvc2/src/main/webapp/step01_boardEx/산출물리스트/01. 요구사항 정의서.xlsx
+++ b/13_jsp_mvc2/src/main/webapp/step01_boardEx/산출물리스트/01. 요구사항 정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\abu\view_workspace\13_jsp_mvc2\13_jsp_mvc2\src\main\webapp\step01_boardEx\산출물리스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\abu\12_web_share_folder\workspace\13_jsp_mvc2\src\main\webapp\step01_boardEx\산출물리스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -570,6 +570,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -593,15 +602,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I992"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -841,7 +841,7 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="2:9" ht="42" customHeight="1">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="20"/>
@@ -849,19 +849,19 @@
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
-      <c r="H2" s="23"/>
+      <c r="H2" s="26"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="2:9" ht="28.5" customHeight="1">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="3" t="s">
         <v>2</v>
       </c>
@@ -874,12 +874,12 @@
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
-      <c r="F4" s="28"/>
+      <c r="F4" s="31"/>
       <c r="G4" s="6" t="s">
         <v>4</v>
       </c>
@@ -901,7 +901,7 @@
       <c r="E5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="32" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="20"/>
@@ -1054,11 +1054,11 @@
       <c r="E13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="2:9" ht="16.5" customHeight="1"/>
     <row r="15" spans="2:9" ht="16.5" customHeight="1"/>
@@ -2045,11 +2045,6 @@
     <filterColumn colId="5" showButton="0"/>
   </autoFilter>
   <mergeCells count="12">
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="B2:H2"/>
@@ -2057,6 +2052,11 @@
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
